--- a/biology/Biochimie/Prix_HP_Heineken_de_biochimie_et_de_biophysique/Prix_HP_Heineken_de_biochimie_et_de_biophysique.xlsx
+++ b/biology/Biochimie/Prix_HP_Heineken_de_biochimie_et_de_biophysique/Prix_HP_Heineken_de_biochimie_et_de_biophysique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix HP Heineken de biochimie et de biophysique (néerlandais : HP Heinekenprijs voor biochemie en biofysica) est un prix  décerné depuis 1964, récompensant des travaux dans les domaines de la biochimie et la biophysique. À l'origine décerné tous les trois ans, le prix est, depuis 1988, accordé tous les deux ans.
 À partir de 1984, les lauréats recevaient la somme de 200 000 florins, qui s'est élevée à 250 000 florins en 1994. En 2000, les lauréats reçurent 150 000 dollars US, montant qui a été porté à 200 000 $ en 2014. Huit des 23 récipiendaires ont reçu par la suite le prix Nobel de physiologie ou médecine ou le prix Nobel de chimie.
@@ -513,7 +525,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1964 : Erwin Chargaff
 1967 : Jean Brachet
